--- a/2025/11/2025-11-13/13_fixtures.xlsx
+++ b/2025/11/2025-11-13/13_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -888,258 +888,6 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Thu Nov 13</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Hong Kong  - Cambodia: 11:00</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Thu Nov 13</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Suriname  - El Salvador: 21:00</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Suriname</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Thu Nov 13</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Bangladesh  - Nepal: 13:00</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Thu Nov 13</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CD Águila - CD Luis Angel Firpo : 22:00</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CD Luis Angel Firpo</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Thu Nov 13</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Nicaragua - Honduras : 16:00</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Thu Nov 13</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CD FAS  - CD Platense Zacatecoluca: 22:00</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>CD FAS</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Thu Nov 13</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Dinamo-BGUFK Minsk - Dnepr Mogilev : 13:00</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Dnepr Mogilev</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Thu Nov 13</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Lithuania - Israel : 16:00</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Israel</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Thu Nov 13</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Coritiba Foot Ball Club  - Athletic Club: 22:00</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Coritiba Foot Ball Club</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>27%</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
